--- a/res/tableauxdebordsociauxetu.xlsx
+++ b/res/tableauxdebordsociauxetu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\cours20182019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IUTtravail\cours\excel\cours20182019\tableaudebord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D06EBBB8-70E0-4CB5-B5FD-462DECE85863}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF7523D0-BE31-4837-932F-749F5ECEB48C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" xr2:uid="{83AF0AF9-C80F-42C4-812B-85B002A671EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="3" xr2:uid="{83AF0AF9-C80F-42C4-812B-85B002A671EF}"/>
   </bookViews>
   <sheets>
     <sheet name="sujetetu" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="756">
   <si>
     <t>Matricule</t>
   </si>
@@ -2057,6 +2057,9 @@
     <t>bet</t>
   </si>
   <si>
+    <t>1/ affecter la fonction AUJOURDHUI() dans la cellule O1</t>
+  </si>
+  <si>
     <t>3/ Vérifier les résultats et rectifier les éventuelles erreurs.</t>
   </si>
   <si>
@@ -2334,15 +2337,6 @@
   </si>
   <si>
     <t>1/ Observer attentivement les quatre images ci-contre.</t>
-  </si>
-  <si>
-    <t>1/ Affecter la fonction AUJOURDHUI() dans la cellule O1</t>
-  </si>
-  <si>
-    <t>Buda</t>
-  </si>
-  <si>
-    <t>Pest</t>
   </si>
 </sst>
 </file>
@@ -4233,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F66209-A64D-40F5-A718-F23C461C6763}">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4395,7 +4389,7 @@
         <v>32812</v>
       </c>
       <c r="M6" t="s">
-        <v>755</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -4424,7 +4418,7 @@
         <v>32063</v>
       </c>
       <c r="M7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -4453,7 +4447,7 @@
         <v>32982</v>
       </c>
       <c r="M8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -4482,7 +4476,7 @@
         <v>37669</v>
       </c>
       <c r="M9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -4511,7 +4505,7 @@
         <v>40883</v>
       </c>
       <c r="M10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -4540,7 +4534,7 @@
         <v>38635</v>
       </c>
       <c r="M11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -12144,7 +12138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47DA432-81C0-4AD8-8AFF-91EF469F6232}">
   <dimension ref="B2:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
@@ -12155,7 +12149,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -12163,56 +12157,56 @@
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="F4" s="16" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
     </row>
     <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12228,51 +12222,51 @@
     </row>
     <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="F13" s="15" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="F14" s="15" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="F15" s="15" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
     <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12280,71 +12274,71 @@
         <v>5</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="66" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F21" s="67"/>
     </row>
     <row r="22" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="65"/>
       <c r="C22" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>682</v>
-      </c>
       <c r="F22" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="H23" s="15" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="H24" s="15" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="H25" s="15" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -12353,7 +12347,7 @@
     </row>
     <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -12362,48 +12356,48 @@
     </row>
     <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>682</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="G32" s="15" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B33" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="G33" s="15" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -12411,7 +12405,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -12419,7 +12413,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -12427,7 +12421,7 @@
     </row>
     <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12435,74 +12429,74 @@
         <v>659</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B41" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="F41" s="15" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="20" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="21" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
     </row>
     <row r="50" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="26" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -12510,24 +12504,24 @@
         <v>659</v>
       </c>
       <c r="C51" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="D51" s="22" t="s">
-        <v>666</v>
-      </c>
       <c r="E51" s="22" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -12535,12 +12529,12 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="I52" s="27" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B53" s="25" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -12548,12 +12542,12 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="I53" s="15" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="25" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -12563,7 +12557,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -12573,7 +12567,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -12583,7 +12577,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -12593,7 +12587,7 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -12603,7 +12597,7 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -12613,7 +12607,7 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -12623,7 +12617,7 @@
     </row>
     <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="26" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -12631,22 +12625,22 @@
         <v>659</v>
       </c>
       <c r="C62" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="D62" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="D62" s="22" t="s">
-        <v>666</v>
-      </c>
       <c r="E62" s="22" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G62" s="18"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -12655,7 +12649,7 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="25" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -12664,7 +12658,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="25" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -12673,7 +12667,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -12682,7 +12676,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -12691,7 +12685,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -12700,7 +12694,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -12709,7 +12703,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -12718,7 +12712,7 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
@@ -12727,79 +12721,79 @@
     </row>
     <row r="75" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="49" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="50"/>
       <c r="C76" s="51" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E76" s="52" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
       <c r="E77" s="43"/>
       <c r="H77" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="36" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
       <c r="E78" s="44"/>
       <c r="H78" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="40" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C79" s="45"/>
       <c r="D79" s="45"/>
       <c r="E79" s="46"/>
       <c r="H79" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="41" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="46"/>
       <c r="H80" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="41" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
       <c r="E81" s="46"/>
       <c r="H81" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="42" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C82" s="47"/>
       <c r="D82" s="47"/>
@@ -12807,19 +12801,19 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="37" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="37" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="37" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -12837,7 +12831,7 @@
   <dimension ref="B1:S324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12852,16 +12846,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>721</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>720</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>659</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12870,38 +12864,38 @@
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
       <c r="H3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E6" s="59"/>
       <c r="H6" s="34" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
@@ -15733,28 +15727,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9858242-4EFB-4369-A7D2-B863711DDBC0}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="39"/>
       <c r="E2" s="39" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="35"/>
       <c r="F3" s="68" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G3" s="68"/>
       <c r="H3" s="68"/>
@@ -15775,43 +15769,42 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="23" spans="11:11" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>746</v>
+      </c>
+    </row>
     <row r="31" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K31" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K32" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -15840,10 +15833,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD204924-6BD6-4E0F-BF2D-85780AC5F6CE}">
-  <dimension ref="B3:D5"/>
+  <dimension ref="B3:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15873,18 +15866,6 @@
       <c r="D4" t="str">
         <f>B4&amp;" ans"&amp;" et "&amp;3&amp;" mois"</f>
         <v>6 ans et 3 mois</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>756</v>
-      </c>
-      <c r="C5" t="s">
-        <v>757</v>
-      </c>
-      <c r="D5" t="str">
-        <f>B5&amp;C5</f>
-        <v>BudaPest</v>
       </c>
     </row>
   </sheetData>
